--- a/subjects/resources/1/it_math/LR1.xlsx
+++ b/subjects/resources/1/it_math/LR1.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\пользователь\Desktop\Электронное портфолио\ИТ в математике\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="График линейной функции" sheetId="1" r:id="rId1"/>
+    <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
     <sheet name="Задание 2" sheetId="2" r:id="rId2"/>
-    <sheet name=" Задание 3" sheetId="5" r:id="rId3"/>
-    <sheet name="Задание 4" sheetId="6" r:id="rId4"/>
+    <sheet name="Задание 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Задание 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>k</t>
   </si>
@@ -31,25 +41,32 @@
     <t>y</t>
   </si>
   <si>
-    <t>Абсолютные ссылки используются тогда, когда в формуле присутствует некая константа либо переменная, которая не является параметром вычисления и не меняется ни при каких условиях.</t>
+    <t>Пункт 1.</t>
   </si>
   <si>
-    <t>Смешанные ссылки используются тогда, когда нужно привязать смещение к какому либо столбцу или строке.</t>
+    <t>Пункт 2.</t>
   </si>
   <si>
-    <t>Относительные ссылки используются, когда смещение идёт и по строке и по столбцу.</t>
+    <t>Пункт 3.</t>
+  </si>
+  <si>
+    <t>Пункт 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пункт 5.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -61,15 +78,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,24 +88,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,42 +116,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -199,29 +200,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>График линейной функции</a:t>
+              <a:rPr lang="ru-RU" b="1"/>
+              <a:t>Линейная функция </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>: </a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>y=kx+b</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Y=k*x+b</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -259,14 +244,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'График линейной функции'!$A$5</c:f>
+              <c:f>'Задание 1'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -276,8 +261,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -299,7 +286,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'График линейной функции'!$B$4:$H$4</c:f>
+              <c:f>'Задание 1'!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -329,7 +316,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'График линейной функции'!$B$5:$H$5</c:f>
+              <c:f>'Задание 1'!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -357,7 +344,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -367,11 +354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269532320"/>
-        <c:axId val="269843896"/>
+        <c:axId val="355408648"/>
+        <c:axId val="355410216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269532320"/>
+        <c:axId val="355408648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,212 +378,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Ось</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>X</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.48072778058705967"/>
-              <c:y val="0.92029567792501143"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="269843896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="269843896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Ось</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>Y</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.4678899082568808E-2"/>
-              <c:y val="0.63605511377878632"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -634,7 +415,69 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269532320"/>
+        <c:crossAx val="355410216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="355410216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355408648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -717,35 +560,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>y = 2</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>y=2^x+3</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="30000">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>x</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>+3</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.4787303149606299"/>
+          <c:y val="2.6981445476057863E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -777,17 +605,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.238188976377953E-2"/>
-          <c:y val="0.13192432016559774"/>
-          <c:w val="0.88372077528770443"/>
-          <c:h val="0.72734848314900813"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -899,11 +717,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269004952"/>
-        <c:axId val="269340192"/>
+        <c:axId val="521329232"/>
+        <c:axId val="529013888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269004952"/>
+        <c:axId val="521329232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,71 +741,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Ось</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>X</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1025,12 +778,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269340192"/>
+        <c:crossAx val="529013888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269340192"/>
+        <c:axId val="529013888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,78 +803,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Ось</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>Y</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0"/>
-              <c:y val="0.49518144285269194"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1159,7 +840,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269004952"/>
+        <c:crossAx val="521329232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1242,28 +923,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>График функции</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>y</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="ru-RU" b="1"/>
+              <a:t>=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>sqrt(x)</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1308,7 +978,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Задание 2'!$A$27</c:f>
+              <c:f>'Задание 2'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1343,10 +1013,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Задание 2'!$B$26:$K$26</c:f>
+              <c:f>'Задание 2'!$B$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1354,38 +1024,29 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Задание 2'!$B$27:$K$27</c:f>
+              <c:f>'Задание 2'!$B$23:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1393,28 +1054,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4142135623730951</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7320508075688772</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2360679774997898</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4494897427831779</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6457513110645907</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8284271247461903</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,11 +1081,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269000712"/>
-        <c:axId val="269348984"/>
+        <c:axId val="115145688"/>
+        <c:axId val="115147648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269000712"/>
+        <c:axId val="115145688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,12 +1142,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269348984"/>
+        <c:crossAx val="115147648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269348984"/>
+        <c:axId val="115147648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,7 +1204,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269000712"/>
+        <c:crossAx val="115145688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1635,28 +1287,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>График функции</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>y=7-|x|</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>y = 7 - |x|</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1701,7 +1334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Задание 2'!$A$46</c:f>
+              <c:f>'Задание 2'!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1736,33 +1369,33 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Задание 2'!$B$45:$J$45</c:f>
+              <c:f>'Задание 2'!$B$42:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5</c:v>
@@ -1772,33 +1405,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Задание 2'!$B$46:$J$46</c:f>
+              <c:f>'Задание 2'!$B$43:$J$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
@@ -1816,11 +1449,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117845680"/>
-        <c:axId val="269466872"/>
+        <c:axId val="349753480"/>
+        <c:axId val="349760928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117845680"/>
+        <c:axId val="349753480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,12 +1510,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269466872"/>
+        <c:crossAx val="349760928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269466872"/>
+        <c:axId val="349760928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1572,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117845680"/>
+        <c:crossAx val="349753480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2008,27 +1641,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2036,43 +1655,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>График функции</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>y = ln(x)</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>y=1/x</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2090,27 +1674,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2125,14 +1695,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Задание 2'!$A$86</c:f>
+              <c:f>'Задание 2'!$A$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2142,10 +1712,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2167,107 +1735,95 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Задание 2'!$B$85:$O$85</c:f>
+              <c:f>'Задание 2'!$B$62:$M$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Задание 2'!$B$86:$O$86</c:f>
+              <c:f>'Задание 2'!$B$63:$M$63</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.3862943611198906</c:v>
+                  <c:v>-0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.69314718055994529</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69314718055994529</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0986122886681098</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3862943611198906</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6094379124341003</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.791759469228055</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9459101490553132</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0794415416798357</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1972245773362196</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3025850929940459</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3978952727983707</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4849066497880004</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2277,11 +1833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269468440"/>
-        <c:axId val="269469616"/>
+        <c:axId val="528777368"/>
+        <c:axId val="528777760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269468440"/>
+        <c:axId val="528777368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,12 +1894,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269469616"/>
+        <c:crossAx val="528777760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269469616"/>
+        <c:axId val="528777760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,7 +1919,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2400,7 +1956,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269468440"/>
+        <c:crossAx val="528777368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2483,19 +2039,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>График функции</a:t>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>y=ln(x)</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>y = 1/x</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2539,7 +2085,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1</c:v>
+            <c:strRef>
+              <c:f>'Задание 2'!$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2551,141 +2105,76 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Задание 2'!$B$65:$H$65</c:f>
+              <c:f>'Задание 2'!$B$82:$H$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.25</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Задание 2'!$B$66:$H$66</c:f>
+              <c:f>'Задание 2'!$B$83:$H$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-0.2</c:v>
+                  <c:v>-1.3862943611198906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.69314718055994529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.33333333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.5</c:v>
+                  <c:v>0.69314718055994529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>1.3862943611198906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2</c:v>
+                  <c:v>1.791759469228055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Задание 2'!$I$65:$O$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Задание 2'!$J$66:$O$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>2.1972245773362196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,11 +2189,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269469224"/>
-        <c:axId val="269470400"/>
+        <c:axId val="654505008"/>
+        <c:axId val="654502264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269469224"/>
+        <c:axId val="654505008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,12 +2250,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269470400"/>
+        <c:crossAx val="654502264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269470400"/>
+        <c:axId val="654502264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,7 +2312,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269469224"/>
+        <c:crossAx val="654505008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2879,10 +2368,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2906,14 +2395,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Гиперболический</a:t>
+              <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Гиперболический параболоид</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> Параболоид</a:t>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>.</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2926,6 +2414,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -2975,7 +2483,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>' Задание 3'!$A$2</c:f>
+              <c:f>'Задание 3'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2986,7 +2494,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5">
+                <a:shade val="41000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln/>
             <a:effectLst/>
@@ -2994,7 +2504,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>' Задание 3'!$B$1:$L$1</c:f>
+              <c:f>'Задание 3'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3036,7 +2546,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Задание 3'!$B$2:$L$2</c:f>
+              <c:f>'Задание 3'!$B$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3082,7 +2592,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>' Задание 3'!$A$3</c:f>
+              <c:f>'Задание 3'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3093,7 +2603,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5">
+                <a:shade val="53000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln/>
             <a:effectLst/>
@@ -3101,7 +2613,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>' Задание 3'!$B$1:$L$1</c:f>
+              <c:f>'Задание 3'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3143,7 +2655,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Задание 3'!$B$3:$L$3</c:f>
+              <c:f>'Задание 3'!$B$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3189,7 +2701,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>' Задание 3'!$A$4</c:f>
+              <c:f>'Задание 3'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3200,7 +2712,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent5">
+                <a:shade val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln/>
             <a:effectLst/>
@@ -3208,7 +2722,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>' Задание 3'!$B$1:$L$1</c:f>
+              <c:f>'Задание 3'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3250,7 +2764,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Задание 3'!$B$4:$L$4</c:f>
+              <c:f>'Задание 3'!$B$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3296,7 +2810,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>' Задание 3'!$A$5</c:f>
+              <c:f>'Задание 3'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3307,7 +2821,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent5">
+                <a:shade val="76000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln/>
             <a:effectLst/>
@@ -3315,7 +2831,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>' Задание 3'!$B$1:$L$1</c:f>
+              <c:f>'Задание 3'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3357,7 +2873,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Задание 3'!$B$5:$L$5</c:f>
+              <c:f>'Задание 3'!$B$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3403,11 +2919,120 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>' Задание 3'!$A$6</c:f>
+              <c:f>'Задание 3'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:shade val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задание 3'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задание 3'!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>55.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задание 3'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3422,7 +3047,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>' Задание 3'!$B$1:$L$1</c:f>
+              <c:f>'Задание 3'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3464,114 +3089,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Задание 3'!$B$6:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>55.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>55.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>' Задание 3'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>' Задание 3'!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-7.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>' Задание 3'!$B$7:$L$7</c:f>
+              <c:f>'Задание 3'!$B$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3617,7 +3135,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>' Задание 3'!$A$8</c:f>
+              <c:f>'Задание 3'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3628,8 +3146,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent5">
+                <a:tint val="89000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln/>
@@ -3638,7 +3156,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>' Задание 3'!$B$1:$L$1</c:f>
+              <c:f>'Задание 3'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3680,7 +3198,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Задание 3'!$B$8:$L$8</c:f>
+              <c:f>'Задание 3'!$B$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3726,7 +3244,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>' Задание 3'!$A$9</c:f>
+              <c:f>'Задание 3'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3737,8 +3255,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent5">
+                <a:tint val="77000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln/>
@@ -3747,7 +3265,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>' Задание 3'!$B$1:$L$1</c:f>
+              <c:f>'Задание 3'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3789,7 +3307,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Задание 3'!$B$9:$L$9</c:f>
+              <c:f>'Задание 3'!$B$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3835,7 +3353,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>' Задание 3'!$A$10</c:f>
+              <c:f>'Задание 3'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3846,8 +3364,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent5">
+                <a:tint val="65000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln/>
@@ -3856,7 +3374,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>' Задание 3'!$B$1:$L$1</c:f>
+              <c:f>'Задание 3'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3898,7 +3416,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Задание 3'!$B$10:$L$10</c:f>
+              <c:f>'Задание 3'!$B$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3944,7 +3462,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>' Задание 3'!$A$11</c:f>
+              <c:f>'Задание 3'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3955,8 +3473,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent5">
+                <a:tint val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln/>
@@ -3965,7 +3483,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>' Задание 3'!$B$1:$L$1</c:f>
+              <c:f>'Задание 3'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4007,7 +3525,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Задание 3'!$B$11:$L$11</c:f>
+              <c:f>'Задание 3'!$B$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4053,7 +3571,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>' Задание 3'!$A$12</c:f>
+              <c:f>'Задание 3'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4065,7 +3583,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
+                <a:tint val="42000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln/>
@@ -4074,7 +3592,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>' Задание 3'!$B$1:$L$1</c:f>
+              <c:f>'Задание 3'!$B$1:$L$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4116,7 +3634,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>' Задание 3'!$B$12:$L$12</c:f>
+              <c:f>'Задание 3'!$B$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4162,7 +3680,9 @@
             <c:idx val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -4173,7 +3693,9 @@
             <c:idx val="1"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -4184,7 +3706,9 @@
             <c:idx val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -4195,7 +3719,9 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -4206,7 +3732,9 @@
             <c:idx val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -4217,7 +3745,9 @@
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -4228,8 +3758,8 @@
             <c:idx val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -4241,8 +3771,8 @@
             <c:idx val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -4254,8 +3784,8 @@
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -4267,8 +3797,8 @@
             <c:idx val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -4281,7 +3811,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
+                  <a:tint val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -4293,8 +3823,8 @@
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -4306,9 +3836,8 @@
             <c:idx val="12"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -4320,9 +3849,8 @@
             <c:idx val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -4334,9 +3862,8 @@
             <c:idx val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -4345,12 +3872,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="269465304"/>
-        <c:axId val="269465696"/>
-        <c:axId val="270531856"/>
+        <c:axId val="654501480"/>
+        <c:axId val="654505792"/>
+        <c:axId val="524256048"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="269465304"/>
+        <c:axId val="654501480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4393,7 +3920,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269465696"/>
+        <c:crossAx val="654505792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4401,7 +3928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269465696"/>
+        <c:axId val="654505792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4452,12 +3979,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269465304"/>
+        <c:crossAx val="654501480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="270531856"/>
+        <c:axId val="524256048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4499,7 +4026,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269465696"/>
+        <c:crossAx val="654505792"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -4512,121 +4039,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4701,10 +4113,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4728,12 +4140,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
               <a:t>Эллиптический параболоид</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>.</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4746,6 +4159,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -4806,7 +4239,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5">
+                <a:shade val="41000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln/>
             <a:effectLst/>
@@ -4819,37 +4254,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4861,37 +4296,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>45.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>27.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>27.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>45.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4913,7 +4348,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5">
+                <a:shade val="53000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln/>
             <a:effectLst/>
@@ -4926,37 +4363,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4968,37 +4405,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>72.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>18.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>18.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65</c:v>
+                  <c:v>72.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5020,7 +4457,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent5">
+                <a:shade val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln/>
             <a:effectLst/>
@@ -5033,37 +4472,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,37 +4514,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>65.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58</c:v>
+                  <c:v>65.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5127,7 +4566,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent5">
+                <a:shade val="76000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln/>
             <a:effectLst/>
@@ -5140,37 +4581,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5182,37 +4623,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>60.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>24.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>24.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53</c:v>
+                  <c:v>60.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5228,6 +4669,115 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:shade val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Задание 4'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задание 4'!$B$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>57.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задание 4'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5247,144 +4797,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Задание 4'!$B$6:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Задание 4'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Задание 4'!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5396,37 +4839,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5448,8 +4891,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent5">
+                <a:tint val="89000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln/>
@@ -5463,37 +4906,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5505,37 +4948,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>57.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>21.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>21.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>57.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5557,8 +5000,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent5">
+                <a:tint val="77000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln/>
@@ -5572,37 +5015,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5614,37 +5057,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>60.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>24.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>24.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53</c:v>
+                  <c:v>60.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5666,8 +5109,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent5">
+                <a:tint val="65000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln/>
@@ -5681,37 +5124,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5723,37 +5166,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>65.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>29.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58</c:v>
+                  <c:v>65.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5775,8 +5218,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent5">
+                <a:tint val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln/>
@@ -5790,37 +5233,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5832,37 +5275,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>72.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>18.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>18.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>65</c:v>
+                  <c:v>72.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5885,7 +5328,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
+                <a:tint val="42000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln/>
@@ -5899,37 +5342,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-7</c:v>
+                  <c:v>-7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5941,37 +5384,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>45.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>27.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>27.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>45.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5982,7 +5425,9 @@
             <c:idx val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -5993,7 +5438,9 @@
             <c:idx val="1"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -6004,7 +5451,9 @@
             <c:idx val="2"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent5">
+                  <a:shade val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -6015,7 +5464,9 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -6026,7 +5477,9 @@
             <c:idx val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -6037,7 +5490,9 @@
             <c:idx val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln/>
               <a:effectLst/>
@@ -6048,8 +5503,8 @@
             <c:idx val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -6061,8 +5516,8 @@
             <c:idx val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -6074,8 +5529,8 @@
             <c:idx val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -6087,8 +5542,8 @@
             <c:idx val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -6101,7 +5556,7 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
+                  <a:tint val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -6113,8 +5568,8 @@
             <c:idx val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -6126,9 +5581,8 @@
             <c:idx val="12"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -6140,9 +5594,8 @@
             <c:idx val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -6154,9 +5607,8 @@
             <c:idx val="14"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
+                <a:schemeClr val="accent5">
+                  <a:tint val="70000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln/>
@@ -6165,12 +5617,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="269467264"/>
-        <c:axId val="269468048"/>
-        <c:axId val="269856760"/>
+        <c:axId val="519983936"/>
+        <c:axId val="519981584"/>
+        <c:axId val="528479768"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="269467264"/>
+        <c:axId val="519983936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6213,7 +5665,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269468048"/>
+        <c:crossAx val="519981584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6221,7 +5673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="269468048"/>
+        <c:axId val="519981584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6272,12 +5724,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269467264"/>
+        <c:crossAx val="519983936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="269856760"/>
+        <c:axId val="528479768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6319,7 +5771,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269468048"/>
+        <c:crossAx val="519981584"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -6332,98 +5784,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -9832,15 +9192,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9867,15 +9227,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9897,19 +9257,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9926,20 +9286,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9957,19 +9317,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9986,20 +9346,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10021,20 +9381,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10057,15 +9417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10098,39 +9458,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10209,276 +9569,257 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A4" sqref="A4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="6">
         <v>2</v>
       </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>3</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>-3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>-1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <f>$B$1*B4+$B$2</f>
         <v>-3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <f t="shared" ref="C5:H5" si="0">$B$1*C4+$B$2</f>
         <v>-1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;LБахурев Николай Юрьевич
-&amp;C1-ая подгруппа
-</oddHeader>
+    <oddHeader>&amp;CЛазарев Игорь, 1 подгруппа</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10486,447 +9827,431 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O86"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>-3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>-2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>-1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>2</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <f>POWER(2,B2)+3</f>
+      <c r="B3" s="6">
+        <f>2^B2+3</f>
         <v>3.125</v>
       </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:H3" si="0">POWER(2,C2)+3</f>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:H3" si="0">2^C2+3</f>
         <v>3.25</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B22" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D22" s="6">
+        <v>4</v>
+      </c>
+      <c r="E22" s="6">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6">
+        <v>16</v>
+      </c>
+      <c r="G22" s="6">
+        <v>25</v>
+      </c>
+      <c r="H22" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="3">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
-        <v>5</v>
-      </c>
-      <c r="H26" s="3">
-        <v>6</v>
-      </c>
-      <c r="I26" s="3">
-        <v>7</v>
-      </c>
-      <c r="J26" s="3">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3">
-        <f>SQRT(B26)</f>
+      <c r="B23" s="6">
+        <f>SQRT(B22)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27:K27" si="1">SQRT(C26)</f>
+      <c r="C23" s="6">
+        <f t="shared" ref="C23:H23" si="1">SQRT(C22)</f>
         <v>1</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="1"/>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="D23" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G27" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2360679774997898</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="1"/>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6457513110645907</v>
-      </c>
-      <c r="J27" s="3">
-        <f t="shared" si="1"/>
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="E23" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
+      <c r="F23" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B42" s="6">
+        <v>-5</v>
+      </c>
+      <c r="C42" s="6">
         <v>-3</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D42" s="6">
         <v>-2</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E42" s="6">
         <v>-1</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F42" s="6">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G42" s="6">
         <v>1</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H42" s="6">
         <v>2</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I42" s="6">
         <v>3</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J42" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="6">
+        <f>7-ABS(B42)</f>
+        <v>2</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" ref="C43:J43" si="2">7-ABS(C42)</f>
         <v>4</v>
       </c>
-      <c r="J45" s="3">
+      <c r="D43" s="6">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="3">
-        <f>7-ABS(B45)</f>
-        <v>4</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" ref="C46:J46" si="2">7-ABS(C45)</f>
-        <v>5</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="E43" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F43" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G43" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H43" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I43" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I46" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="J43" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="3">
-        <v>-5</v>
-      </c>
-      <c r="C65" s="3">
+      <c r="B62" s="6">
+        <v>-7</v>
+      </c>
+      <c r="C62" s="6">
         <v>-4</v>
       </c>
-      <c r="D65" s="3">
-        <v>-3</v>
-      </c>
-      <c r="E65" s="3">
+      <c r="D62" s="6">
         <v>-2</v>
       </c>
-      <c r="F65" s="3">
+      <c r="E62" s="6">
         <v>-1</v>
       </c>
-      <c r="G65" s="3">
+      <c r="F62" s="6">
         <v>-0.5</v>
       </c>
-      <c r="H65" s="3">
+      <c r="G62" s="6">
         <v>-0.25</v>
       </c>
-      <c r="I65" s="3">
+      <c r="H62" s="6">
         <v>0.25</v>
       </c>
-      <c r="J65" s="3">
+      <c r="I62" s="6">
         <v>0.5</v>
       </c>
-      <c r="K65" s="3">
+      <c r="J62" s="6">
         <v>1</v>
       </c>
-      <c r="L65" s="3">
+      <c r="K62" s="6">
         <v>2</v>
       </c>
-      <c r="M65" s="3">
+      <c r="L62" s="6">
+        <v>4</v>
+      </c>
+      <c r="M62" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N65" s="3">
-        <v>4</v>
-      </c>
-      <c r="O65" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="3">
-        <f>1/B65</f>
-        <v>-0.2</v>
-      </c>
-      <c r="C66" s="3">
-        <f t="shared" ref="C66:O66" si="3">1/C65</f>
+      <c r="B63" s="6">
+        <f>1/B62</f>
+        <v>-0.14285714285714285</v>
+      </c>
+      <c r="C63" s="6">
+        <f t="shared" ref="C63:G63" si="3">1/C62</f>
         <v>-0.25</v>
       </c>
-      <c r="D66" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D63" s="6">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="F66" s="3">
+      <c r="E63" s="6">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="G66" s="3">
+      <c r="F63" s="6">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="H66" s="3">
+      <c r="G63" s="6">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
-      <c r="I66" s="3">
-        <f t="shared" si="3"/>
+      <c r="H63" s="6">
+        <f>1/H62</f>
         <v>4</v>
       </c>
-      <c r="J66" s="3">
-        <f t="shared" si="3"/>
+      <c r="I63" s="6">
+        <f>1/I62</f>
         <v>2</v>
       </c>
-      <c r="K66" s="3">
-        <f t="shared" si="3"/>
+      <c r="J63" s="6">
+        <f>1/J62</f>
         <v>1</v>
       </c>
-      <c r="L66" s="3">
-        <f t="shared" si="3"/>
+      <c r="K63" s="6">
+        <f>1/K62</f>
         <v>0.5</v>
       </c>
-      <c r="M66" s="3">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N66" s="3">
-        <f t="shared" si="3"/>
+      <c r="L63" s="6">
+        <f>1/L62</f>
         <v>0.25</v>
       </c>
-      <c r="O66" s="3">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+      <c r="M63" s="6">
+        <f>1/M62</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B82" s="6">
         <v>0.25</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C82" s="6">
         <v>0.5</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D82" s="6">
         <v>1</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E82" s="6">
         <v>2</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F82" s="6">
+        <v>4</v>
+      </c>
+      <c r="G82" s="6">
+        <v>6</v>
+      </c>
+      <c r="H82" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="3">
-        <v>4</v>
-      </c>
-      <c r="H85" s="3">
-        <v>5</v>
-      </c>
-      <c r="I85" s="3">
-        <v>6</v>
-      </c>
-      <c r="J85" s="3">
-        <v>7</v>
-      </c>
-      <c r="K85" s="3">
-        <v>8</v>
-      </c>
-      <c r="L85" s="3">
-        <v>9</v>
-      </c>
-      <c r="M85" s="3">
-        <v>10</v>
-      </c>
-      <c r="N85" s="3">
-        <v>11</v>
-      </c>
-      <c r="O85" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="4">
-        <f>LN(B85)</f>
+      <c r="B83" s="6">
+        <f>LN(B82)</f>
         <v>-1.3862943611198906</v>
       </c>
-      <c r="C86" s="4">
-        <f t="shared" ref="C86:N86" si="4">LN(C85)</f>
+      <c r="C83" s="6">
+        <f t="shared" ref="C83:H83" si="4">LN(C82)</f>
         <v>-0.69314718055994529</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D83" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E83" s="6">
         <f t="shared" si="4"/>
         <v>0.69314718055994529</v>
       </c>
-      <c r="F86" s="4">
-        <f t="shared" si="4"/>
-        <v>1.0986122886681098</v>
-      </c>
-      <c r="G86" s="4">
+      <c r="F83" s="6">
         <f t="shared" si="4"/>
         <v>1.3862943611198906</v>
       </c>
-      <c r="H86" s="4">
-        <f t="shared" si="4"/>
-        <v>1.6094379124341003</v>
-      </c>
-      <c r="I86" s="4">
+      <c r="G83" s="6">
         <f t="shared" si="4"/>
         <v>1.791759469228055</v>
       </c>
-      <c r="J86" s="4">
-        <f t="shared" si="4"/>
-        <v>1.9459101490553132</v>
-      </c>
-      <c r="K86" s="4">
-        <f t="shared" si="4"/>
-        <v>2.0794415416798357</v>
-      </c>
-      <c r="L86" s="4">
+      <c r="H83" s="6">
         <f t="shared" si="4"/>
         <v>2.1972245773362196</v>
       </c>
-      <c r="M86" s="4">
-        <f t="shared" si="4"/>
-        <v>2.3025850929940459</v>
-      </c>
-      <c r="N86" s="4">
-        <f t="shared" si="4"/>
-        <v>2.3978952727983707</v>
-      </c>
-      <c r="O86" s="4">
-        <f>LN(O85)</f>
-        <v>2.4849066497880004</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A81:H81"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;LБахурев Николай Юрьевич&amp;C1-ая подгруппа</oddHeader>
+    <oddHeader xml:space="preserve">&amp;CЛазарев Игорь, 1 подгруппа
+</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -10934,603 +10259,598 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5">
         <v>-7.5</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="5">
         <v>-6</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="5">
         <v>-4.5</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="5">
         <v>-3</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="5">
         <v>-1.5</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="5">
         <v>0</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="5">
         <v>1.5</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="5">
         <v>3</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="5">
         <v>4.5</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="5">
         <v>6</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="5">
         <v>7.5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>-5</v>
       </c>
-      <c r="B2" s="8">
-        <f>POWER(B$1,2)-POWER($A2,2)</f>
+      <c r="B2" s="4">
+        <f>(B$1)^2-($A2)^2</f>
         <v>31.25</v>
       </c>
-      <c r="C2" s="8">
-        <f t="shared" ref="C2:L12" si="0">POWER(C$1,2)-POWER($A2,2)</f>
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:L12" si="0">(C$1)^2-($A2)^2</f>
         <v>11</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <f t="shared" si="0"/>
         <v>-4.75</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <f t="shared" si="0"/>
         <v>-16</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <f t="shared" si="0"/>
         <v>-22.75</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <f t="shared" si="0"/>
         <v>-25</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="4">
         <f t="shared" si="0"/>
         <v>-22.75</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="4">
         <f t="shared" si="0"/>
         <v>-16</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="4">
         <f t="shared" si="0"/>
         <v>-4.75</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="4">
         <f t="shared" si="0"/>
         <v>31.25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>-4</v>
       </c>
-      <c r="B3" s="8">
-        <f t="shared" ref="B3:B12" si="1">POWER(B$1,2)-POWER($A3,2)</f>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B11" si="1">(B$1)^2-($A3)^2</f>
         <v>40.25</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>-13.75</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
         <v>-16</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="4">
         <f t="shared" si="0"/>
         <v>-13.75</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="4">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="4">
         <f t="shared" si="0"/>
         <v>40.25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>-3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="4">
         <f t="shared" si="1"/>
         <v>47.25</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>-6.75</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>-9</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
         <f t="shared" si="0"/>
         <v>-6.75</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="4">
         <f t="shared" si="0"/>
         <v>47.25</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>-2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <f t="shared" si="1"/>
         <v>52.25</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>16.25</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>-1.75</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
         <v>-1.75</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>16.25</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>52.25</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>-1</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <f t="shared" si="1"/>
         <v>55.25</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>19.25</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>19.25</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>0</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <f t="shared" si="1"/>
         <v>56.25</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>20.25</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>20.25</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="4">
         <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <f t="shared" si="1"/>
         <v>55.25</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>19.25</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>19.25</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="4">
         <f t="shared" si="0"/>
         <v>55.25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <f t="shared" si="1"/>
         <v>52.25</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>16.25</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>-1.75</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>-1.75</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>16.25</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="4">
         <f t="shared" si="0"/>
         <v>52.25</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <f t="shared" si="1"/>
         <v>47.25</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>-6.75</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>-9</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>-6.75</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="4">
         <f t="shared" si="0"/>
         <v>47.25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <f t="shared" si="1"/>
         <v>40.25</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>-13.75</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>-16</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>-13.75</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="4">
         <f t="shared" si="0"/>
         <v>40.25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="8">
-        <f t="shared" si="1"/>
+      <c r="B12" s="4">
+        <f>(B$1)^2-($A12)^2</f>
         <v>31.25</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>-4.75</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>-16</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>-22.75</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>-25</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>-22.75</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
         <v>-16</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>-4.75</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="4">
         <f t="shared" si="0"/>
         <v>31.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;LБахурев Николай Юрьевич&amp;C1-ая подгруппа</oddHeader>
+    <oddHeader xml:space="preserve">&amp;CЛазарев Игорь, 1 подгруппа
+</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -11540,592 +10860,595 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="6.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7">
-        <v>-7</v>
-      </c>
-      <c r="C1" s="7">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5">
+        <v>-7.5</v>
+      </c>
+      <c r="C1" s="5">
         <v>-6</v>
       </c>
-      <c r="D1" s="7">
-        <v>-4</v>
-      </c>
-      <c r="E1" s="7">
+      <c r="D1" s="5">
+        <v>-4.5</v>
+      </c>
+      <c r="E1" s="5">
         <v>-3</v>
       </c>
-      <c r="F1" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G1" s="7">
+      <c r="F1" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="G1" s="5">
         <v>0</v>
       </c>
-      <c r="H1" s="7">
-        <v>1</v>
-      </c>
-      <c r="I1" s="7">
+      <c r="H1" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="I1" s="5">
         <v>3</v>
       </c>
-      <c r="J1" s="7">
-        <v>4</v>
-      </c>
-      <c r="K1" s="7">
+      <c r="J1" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="K1" s="5">
         <v>6</v>
       </c>
-      <c r="L1" s="7">
-        <v>7</v>
+      <c r="L1" s="5">
+        <v>7.5</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>-5</v>
       </c>
-      <c r="B2" s="8">
-        <f>POWER(B$1,2)+POWER($A2,2)</f>
-        <v>74</v>
-      </c>
-      <c r="C2" s="8">
-        <f t="shared" ref="C2:L12" si="0">POWER(C$1,2)+POWER($A2,2)</f>
+      <c r="B2" s="4">
+        <f>B$1^2+$A2^2</f>
+        <v>81.25</v>
+      </c>
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:L12" si="0">C$1^2+$A2^2</f>
         <v>61</v>
       </c>
-      <c r="D2" s="8">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="D2" s="4">
+        <f t="shared" si="0"/>
+        <v>45.25</v>
+      </c>
+      <c r="E2" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F2" s="8">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="F2" s="4">
+        <f t="shared" si="0"/>
+        <v>27.25</v>
+      </c>
+      <c r="G2" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H2" s="8">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
+        <v>27.25</v>
+      </c>
+      <c r="I2" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="J2" s="8">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
+        <v>45.25</v>
+      </c>
+      <c r="K2" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="L2" s="8">
-        <f t="shared" si="0"/>
-        <v>74</v>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>81.25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>-4</v>
       </c>
-      <c r="B3" s="8">
-        <f t="shared" ref="B3:B12" si="1">POWER(B$1,2)+POWER($A3,2)</f>
-        <v>65</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B12" si="1">B$1^2+$A3^2</f>
+        <v>72.25</v>
+      </c>
+      <c r="C3" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D3" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>36.25</v>
+      </c>
+      <c r="E3" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>18.25</v>
+      </c>
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H3" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>18.25</v>
+      </c>
+      <c r="I3" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J3" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="J3" s="4">
+        <f t="shared" si="0"/>
+        <v>36.25</v>
+      </c>
+      <c r="K3" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="L3" s="8">
-        <f t="shared" si="0"/>
-        <v>65</v>
+      <c r="L3" s="4">
+        <f t="shared" si="0"/>
+        <v>72.25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>-3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="4">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="C4" s="8">
+        <v>65.25</v>
+      </c>
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D4" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>29.25</v>
+      </c>
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="G4" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H4" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J4" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>29.25</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="L4" s="8">
-        <f t="shared" si="0"/>
-        <v>58</v>
+      <c r="L4" s="4">
+        <f t="shared" si="0"/>
+        <v>65.25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>-2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="C5" s="8">
+        <v>60.25</v>
+      </c>
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D5" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>24.25</v>
+      </c>
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H5" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J5" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>24.25</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L5" s="8">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="L5" s="4">
+        <f t="shared" si="0"/>
+        <v>60.25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>-1</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C6" s="8">
+        <v>57.25</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D6" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H6" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J6" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K6" s="8">
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="L6" s="8">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>57.25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>0</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="C7" s="8">
+        <v>56.25</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>20.25</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J7" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>20.25</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="L7" s="8">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>56.25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C8" s="8">
+        <v>57.25</v>
+      </c>
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D8" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J8" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K8" s="8">
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="L8" s="8">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>57.25</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="C9" s="8">
+        <v>60.25</v>
+      </c>
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>24.25</v>
+      </c>
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H9" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J9" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>24.25</v>
+      </c>
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L9" s="8">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="L9" s="4">
+        <f t="shared" si="0"/>
+        <v>60.25</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="C10" s="8">
+        <v>65.25</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>29.25</v>
+      </c>
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H10" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="J10" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>29.25</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="L10" s="8">
-        <f t="shared" si="0"/>
-        <v>58</v>
+      <c r="L10" s="4">
+        <f t="shared" si="0"/>
+        <v>65.25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C11" s="8">
+        <v>72.25</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>36.25</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>18.25</v>
+      </c>
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H11" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>18.25</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J11" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>36.25</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="L11" s="8">
-        <f t="shared" si="0"/>
-        <v>65</v>
+      <c r="L11" s="4">
+        <f t="shared" si="0"/>
+        <v>72.25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="C12" s="8">
+        <v>81.25</v>
+      </c>
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>45.25</v>
+      </c>
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>27.25</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H12" s="8">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>27.25</v>
+      </c>
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="J12" s="8">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>45.25</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="L12" s="8">
-        <f t="shared" si="0"/>
-        <v>74</v>
+      <c r="L12" s="4">
+        <f t="shared" si="0"/>
+        <v>81.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;LБахурев Николай Юрьевич&amp;C1-ая подгруппа</oddHeader>
+    <oddHeader>&amp;CЛазарев Игорь, 1 подгруппа</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
